--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12525" activeTab="5"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -162,34 +162,37 @@
     <t>CGC1533</t>
   </si>
   <si>
-    <t>To approve the request</t>
+    <t>To approve the request by HR side</t>
   </si>
   <si>
     <t>testing</t>
   </si>
   <si>
-    <t>To disapprove the request</t>
+    <t>not good..plesae re-check</t>
+  </si>
+  <si>
+    <t>great work</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>CGC20149</t>
+  </si>
+  <si>
+    <t>ERP Dept Code</t>
+  </si>
+  <si>
+    <t>ERP Sub Dept Code</t>
+  </si>
+  <si>
+    <t>To approval the request</t>
+  </si>
+  <si>
+    <t>To Disapproval the request</t>
   </si>
   <si>
     <t>not good</t>
-  </si>
-  <si>
-    <t>Cool</t>
-  </si>
-  <si>
-    <t>CGC20149</t>
-  </si>
-  <si>
-    <t>ERP Dept Code</t>
-  </si>
-  <si>
-    <t>ERP Sub Dept Code</t>
-  </si>
-  <si>
-    <t>To approval the request</t>
-  </si>
-  <si>
-    <t>To Disapproval the request</t>
   </si>
   <si>
     <t>To neagtive flow</t>
@@ -1149,7 +1152,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1504,8 +1507,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1540,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1554,7 +1557,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1755,7 +1758,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1763,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>38</v>
@@ -1772,7 +1775,7 @@
         <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1786,7 +1789,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1812,10 +1815,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1823,10 +1826,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -73,12 +73,6 @@
   </si>
   <si>
     <t>Credit - UR</t>
-  </si>
-  <si>
-    <t>Gold Loan</t>
-  </si>
-  <si>
-    <t>Risk - GL</t>
   </si>
   <si>
     <t>FCU</t>
@@ -212,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -226,6 +220,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -234,6 +243,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -242,13 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,40 +327,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -303,15 +341,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,51 +363,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -379,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +601,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -617,21 +626,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,16 +651,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,148 +669,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1253,7 +1247,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -1268,78 +1262,78 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -1353,13 +1347,13 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
@@ -1369,26 +1363,6 @@
       </c>
       <c r="G10" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1413,87 +1387,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" ht="45" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1507,7 +1481,7 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1532,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1543,10 +1517,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1554,10 +1528,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1565,10 +1539,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1576,10 +1550,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1605,87 +1579,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" ht="45" spans="1:5">
-      <c r="A4" t="s">
-        <v>43</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1718,10 +1692,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -1732,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -1749,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1758,7 +1732,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1766,16 +1740,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1815,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1826,10 +1800,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12525"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -206,9 +206,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -228,8 +228,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,90 +328,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,22 +351,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,187 +373,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,17 +567,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,8 +587,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -630,13 +626,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,142 +669,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="$A8:$XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1225,7 +1225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1240,9 +1240,6 @@
       </c>
       <c r="E4" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1671,13 +1668,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
@@ -1750,6 +1747,23 @@
       </c>
       <c r="E4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12525" activeTab="4"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t>TEST_ID</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>to initae the request</t>
+    <t>To Initiate the request for department type Sales</t>
   </si>
   <si>
     <t>Sales</t>
@@ -54,121 +54,175 @@
     <t>Others</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>To Initiate the request for department type Collection</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Collection - HFC</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>To Initiate the request for department type Credit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Credit - UR</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>To Initiate the request for department type FCU</t>
+  </si>
+  <si>
+    <t>FCU</t>
+  </si>
+  <si>
+    <t>Risk Containment Unit - UR</t>
+  </si>
+  <si>
+    <t>Tele Sales Business - HFC</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>To Initiate the request for department type Legal - MSME &amp; Housing</t>
+  </si>
+  <si>
+    <t>Legal - MSME &amp; Housing</t>
+  </si>
+  <si>
+    <t>Legal - UR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good </t>
+  </si>
+  <si>
+    <t>To Initiate the request for department type Legal - MSME &amp; Housing and Deprtamnet Name</t>
+  </si>
+  <si>
+    <t>Legal - HFC</t>
+  </si>
+  <si>
+    <t>Nice work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Initiate the request for department type Legal - MSME </t>
+  </si>
+  <si>
+    <t>Legal - Litigation</t>
+  </si>
+  <si>
+    <t>Please check the values</t>
+  </si>
+  <si>
+    <t>TESTCASE</t>
+  </si>
+  <si>
+    <t>TESTID</t>
+  </si>
+  <si>
+    <t>LOGIN</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>MESSAGE</t>
+  </si>
+  <si>
+    <t>To Verify Login with empty Login ID</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>abc1234#</t>
+  </si>
+  <si>
+    <t>Invalid Login Id or Password.</t>
+  </si>
+  <si>
+    <t>To Verify Login with whitespace in Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                             CGH1736</t>
+  </si>
+  <si>
+    <t>To Verify Login with both empty fields</t>
+  </si>
+  <si>
+    <t>To Verify Login with invalid Login ID</t>
+  </si>
+  <si>
+    <t>CGC24221</t>
+  </si>
+  <si>
+    <t>To Verify Login with invalid Password</t>
+  </si>
+  <si>
+    <t>cgc24221</t>
+  </si>
+  <si>
+    <t>To Verify Login with valid credentials</t>
+  </si>
+  <si>
+    <t>CGC1533</t>
+  </si>
+  <si>
+    <t>Verify approving a request from Finance for testing purpose</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Collections TBD</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>Credit</t>
-  </si>
-  <si>
-    <t>Credit - UR</t>
-  </si>
-  <si>
-    <t>FCU</t>
-  </si>
-  <si>
-    <t>Risk Containment Unit - UR</t>
-  </si>
-  <si>
-    <t>Sales - ASM</t>
-  </si>
-  <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Legal - MSME &amp; Housing</t>
-  </si>
-  <si>
-    <t>Legal - UR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good </t>
-  </si>
-  <si>
-    <t>Legal - HFC</t>
-  </si>
-  <si>
-    <t>Nice work</t>
-  </si>
-  <si>
-    <t>Legal - Litigation</t>
-  </si>
-  <si>
-    <t>Please check the values</t>
-  </si>
-  <si>
-    <t>TESTCASE</t>
-  </si>
-  <si>
-    <t>TESTID</t>
-  </si>
-  <si>
-    <t>LOGIN</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>MESSAGE</t>
-  </si>
-  <si>
-    <t>to verify Null value</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Invalid Login Id or Password.</t>
-  </si>
-  <si>
-    <t>to verify wrong login</t>
-  </si>
-  <si>
-    <t>CGC24221</t>
-  </si>
-  <si>
-    <t>abc1234#</t>
-  </si>
-  <si>
-    <t>to verify wrong password</t>
-  </si>
-  <si>
-    <t>cgc24221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to verify corect login </t>
-  </si>
-  <si>
-    <t>CGC1533</t>
-  </si>
-  <si>
-    <t>To approve the request by HR side</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>not good..plesae re-check</t>
+    <t>Verify disapproving a request from Finance with an uploaded file</t>
+  </si>
+  <si>
+    <t>Needs rechecking</t>
+  </si>
+  <si>
+    <t>Verify approving a request by Finance with proper credentials</t>
   </si>
   <si>
     <t>great work</t>
   </si>
   <si>
-    <t>Cool</t>
+    <t>Verify approving a request by Finance with appropriate comments</t>
+  </si>
+  <si>
+    <t>Nice execution</t>
+  </si>
+  <si>
+    <t>Verify disapproving a request by Finance with negative remarks</t>
+  </si>
+  <si>
+    <t>Data needs rechecking</t>
+  </si>
+  <si>
+    <t>Verify approving a request by Finance with positive remarks</t>
+  </si>
+  <si>
+    <t>Excellent work</t>
+  </si>
+  <si>
+    <t>Verify approving arequest by Finance with an uploaded file</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
   <si>
     <t>CGC20149</t>
@@ -180,16 +234,22 @@
     <t>ERP Sub Dept Code</t>
   </si>
   <si>
-    <t>To approval the request</t>
-  </si>
-  <si>
-    <t>To Disapproval the request</t>
+    <t>Verify the approval of a request with valid details</t>
+  </si>
+  <si>
+    <t>Verify the disapproval of a request with invalid data</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>TC03 Verify the system handles negative flow scenarios</t>
   </si>
   <si>
     <t>not good</t>
   </si>
   <si>
-    <t>To neagtive flow</t>
+    <t>Verify the approval of a request with specific details</t>
   </si>
   <si>
     <t>To edit sub department name</t>
@@ -206,10 +266,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -229,10 +289,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,13 +308,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,16 +326,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,22 +335,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,22 +380,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,29 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,187 +433,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,22 +636,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,45 +682,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -664,147 +695,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,7 +1206,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="$A8:$XFD8"/>
+      <selection activeCell="G2" sqref="A2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1198,19 +1258,17 @@
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1225,69 +1283,72 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1299,67 +1360,67 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1371,100 +1432,132 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="E7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" ht="45" spans="1:5">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="B5">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1476,15 +1569,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="69.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1503,10 +1597,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1514,10 +1608,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1525,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1536,10 +1630,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1547,10 +1641,32 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1562,13 +1678,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="41.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="35.3333333333333" customWidth="1"/>
@@ -1576,87 +1692,119 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="B5">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1670,13 +1818,13 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="22.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="45.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
     <col min="4" max="4" width="16.7777777777778" customWidth="1"/>
   </cols>
@@ -1689,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -1703,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -1712,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1720,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -1729,7 +1877,7 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1737,16 +1885,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1754,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>34</v>
@@ -1803,10 +1951,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1814,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="12525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -266,9 +266,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -288,11 +288,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -311,6 +311,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -319,8 +326,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,9 +351,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -356,6 +372,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -371,31 +402,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,16 +417,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,31 +433,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,151 +571,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,17 +666,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,13 +701,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,156 +724,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1435,7 +1435,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1571,7 +1571,7 @@
   <sheetPr/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1680,7 +1680,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1819,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1853,12 +1853,8 @@
       <c r="B2" t="s">
         <v>71</v>
       </c>
-      <c r="C2">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
+      <c r="C2"/>
+      <c r="D2"/>
       <c r="E2" t="s">
         <v>11</v>
       </c>
@@ -1904,12 +1900,8 @@
       <c r="B5" t="s">
         <v>76</v>
       </c>
-      <c r="C5">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>23</v>
-      </c>
+      <c r="C5"/>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>15</v>
       </c>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
   <si>
     <t xml:space="preserve">TEST_ID</t>
   </si>
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Sales - TW Loan</t>
+    <t xml:space="preserve">Sales – HFC</t>
   </si>
   <si>
     <t xml:space="preserve">Others</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">CGC20149</t>
   </si>
   <si>
-    <t xml:space="preserve">ERP Dept Code</t>
+    <t xml:space="preserve">ERP Sub Dept Name</t>
   </si>
   <si>
     <t xml:space="preserve">ERP Sub Dept Code</t>
@@ -243,9 +243,15 @@
     <t xml:space="preserve">Verify the approval of a request with valid details</t>
   </si>
   <si>
+    <t xml:space="preserve">qa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Verify the disapproval of a request with invalid data</t>
   </si>
   <si>
+    <t xml:space="preserve">qq</t>
+  </si>
+  <si>
     <t xml:space="preserve">Needs Improvement</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
   </si>
   <si>
     <t xml:space="preserve">Verify the approval of a request with specific details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QA</t>
   </si>
   <si>
     <t xml:space="preserve">To edit sub department name</t>
@@ -373,7 +382,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,10 +875,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -897,104 +906,88 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1013,8 +1006,8 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1048,6 +1041,12 @@
       <c r="B2" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
@@ -1057,16 +1056,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>42</v>
@@ -1083,7 +1082,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,7 +1090,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>15</v>
@@ -1141,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,10 +1157,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t xml:space="preserve">TEST_ID</t>
   </si>
@@ -906,87 +906,73 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -617,8 +617,8 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,7 +877,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +906,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>4</v>

--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
   <si>
     <t xml:space="preserve">TEST_ID</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve">Good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGC20149</t>
   </si>
   <si>
     <t xml:space="preserve">ERP Sub Dept Name</t>
@@ -385,7 +382,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
@@ -617,16 +614,16 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -643,7 +640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -660,7 +657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -675,7 +672,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -692,7 +689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>48</v>
       </c>
@@ -709,7 +706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>50</v>
       </c>
@@ -726,7 +723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>52</v>
       </c>
@@ -745,11 +742,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -765,9 +762,9 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
   </cols>
   <sheetData>
@@ -875,105 +872,104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>43</v>
+        <v>78</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -990,17 +986,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,13 +1006,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1025,16 +1014,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,50 +1025,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1104,58 +1047,138 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.33"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>82</v>
+      <c r="C7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/File/TESTCASE_DEPARTMENT.xlsx
+++ b/File/TESTCASE_DEPARTMENT.xlsx
@@ -5,15 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t xml:space="preserve">TEST_ID</t>
   </si>
@@ -189,46 +189,67 @@
     <t xml:space="preserve">CGC1533</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify approving a request from Finance for testing purpose</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Finance-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Verify approving a request from Finance for testing purpose</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Testing</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify disapproving a request from Finance with an uploaded file</t>
+    <t xml:space="preserve">Finance-Verify disapproving a request from Finance with an uploaded file</t>
   </si>
   <si>
     <t xml:space="preserve">Needs rechecking</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify approving a request by Finance with proper credentials</t>
+    <t xml:space="preserve">Finance-Verify approving a request by Finance with proper credentials</t>
   </si>
   <si>
     <t xml:space="preserve">great work</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify approving a request by Finance with appropriate comments</t>
+    <t xml:space="preserve">Finance-Verify approving a request by Finance with appropriate comments</t>
   </si>
   <si>
     <t xml:space="preserve">Nice execution</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify disapproving a request by Finance with negative remarks</t>
+    <t xml:space="preserve">Finance-Verify disapproving a request by Finance with negative remarks</t>
   </si>
   <si>
     <t xml:space="preserve">Data needs rechecking</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify approving a request by Finance with positive remarks</t>
+    <t xml:space="preserve">Finance-Verify approving a request by Finance with positive remarks</t>
   </si>
   <si>
     <t xml:space="preserve">Excellent work</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify approving arequest by Finance with an uploaded file</t>
+    <t xml:space="preserve">Finance-Verify approving request by Finance with an uploaded file</t>
   </si>
   <si>
     <t xml:space="preserve">Good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGC20149</t>
   </si>
   <si>
     <t xml:space="preserve">ERP Sub Dept Name</t>
@@ -280,7 +301,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,6 +322,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -346,7 +373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -357,6 +384,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -382,7 +413,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
@@ -615,12 +646,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,10 +791,10 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27"/>
@@ -779,11 +811,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -872,13 +904,157 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.77"/>
@@ -893,10 +1069,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>6</v>
@@ -907,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>11</v>
@@ -924,16 +1100,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -941,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>42</v>
@@ -950,7 +1126,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -958,77 +1134,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.33"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1047,138 +1162,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.91015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.33"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="1" t="n">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>42</v>
+      <c r="B3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>